--- a/設計書武田C.xlsx
+++ b/設計書武田C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeda\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2681,31 +2681,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2717,13 +2720,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11772,13 +11772,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>420688</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>814295</xdr:colOff>
+      <xdr:colOff>790483</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>151746</xdr:rowOff>
     </xdr:to>
@@ -11789,7 +11789,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7969250" y="1293812"/>
+          <a:off x="7945438" y="1293812"/>
           <a:ext cx="2703420" cy="3937934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19179,17 +19179,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20059,12 +20059,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -20081,25 +20094,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21071,20 +21071,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -21104,20 +21104,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="123" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="123" t="s">
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -21137,18 +21137,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -21168,18 +21168,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -21201,16 +21201,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="123" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -21230,20 +21230,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="123" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -21263,18 +21263,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="123" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -21294,18 +21294,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="123" t="s">
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -21325,20 +21325,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123" t="s">
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -21358,18 +21358,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -21389,18 +21389,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="123" t="s">
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -21420,18 +21420,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="123" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
         <v>21</v>
       </c>
@@ -21451,18 +21451,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="123" t="s">
+      <c r="H19" s="121"/>
+      <c r="I19" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -21482,18 +21482,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123" t="s">
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123" t="s">
+      <c r="H20" s="121"/>
+      <c r="I20" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="23" t="s">
         <v>19</v>
       </c>
@@ -21513,14 +21513,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -21531,14 +21531,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21877,23 +21877,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21910,23 +21910,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -22096,21 +22096,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -22122,10 +22122,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
@@ -22146,10 +22146,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="69" t="s">
         <v>111</v>
       </c>
@@ -22170,10 +22170,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="69" t="s">
         <v>74</v>
       </c>
@@ -22194,10 +22194,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="69" t="s">
         <v>132</v>
       </c>
@@ -22218,10 +22218,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="74" t="s">
         <v>143</v>
       </c>
@@ -22242,15 +22242,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -22260,15 +22260,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -22278,15 +22278,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -22298,15 +22298,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22753,6 +22753,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22763,19 +22776,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24334,7 +24334,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
